--- a/results/mp/tinybert/corona/confidence/168/0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,133 +49,133 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
+    <t>happy</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -536,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -705,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7207792207792207</v>
+        <v>0.187984496124031</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>419</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8823529411764706</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3928571428571428</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -851,41 +848,17 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.3347639484978541</v>
-      </c>
-      <c r="C8">
-        <v>78</v>
-      </c>
-      <c r="D8">
-        <v>78</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>155</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,171 +870,99 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C9">
+      <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="K9">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L10">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L11">
         <v>66</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.85</v>
-      </c>
-      <c r="L9">
-        <v>34</v>
-      </c>
-      <c r="M9">
-        <v>34</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2</v>
-      </c>
-      <c r="C10">
+      <c r="M11">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>16</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>64</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>117</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L11">
-        <v>45</v>
-      </c>
-      <c r="M11">
-        <v>45</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8046875</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1073,21 +974,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.8235294117647058</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,21 +1000,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.8235294117647058</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1125,21 +1026,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7857142857142857</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1151,21 +1052,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1177,21 +1078,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.76</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1203,21 +1104,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7586206896551724</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1229,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7413793103448276</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1255,21 +1156,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.70625</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1281,21 +1182,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6923076923076923</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1312,16 +1213,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.684931506849315</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1333,21 +1234,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1359,21 +1260,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1385,21 +1286,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.6363636363636364</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1411,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.631578947368421</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1437,21 +1338,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5882352941176471</v>
+        <v>0.5625</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1463,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.55</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1489,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L29">
         <v>44</v>
       </c>
-      <c r="K29">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="L29">
-        <v>12</v>
-      </c>
       <c r="M29">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1515,21 +1416,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5333333333333333</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1541,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5305164319248826</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L31">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1567,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4806201550387597</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L32">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="M32">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1593,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>67</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4652777777777778</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L33">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1619,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.4285714285714285</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1645,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.4285714285714285</v>
+        <v>0.34375</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1671,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.358695652173913</v>
+        <v>0.3263598326359833</v>
       </c>
       <c r="L36">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="M36">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1697,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>59</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.2894736842105263</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1723,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.2702702702702703</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1749,33 +1650,111 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>0.02412280701754386</v>
+        <v>0.009426229508196722</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>445</v>
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40">
+        <v>0.009332711152589827</v>
+      </c>
+      <c r="L40">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41">
+        <v>0.006702103073723134</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>30</v>
+      </c>
+      <c r="N41">
+        <v>0.97</v>
+      </c>
+      <c r="O41">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42">
+        <v>0.004803843074459567</v>
+      </c>
+      <c r="L42">
+        <v>24</v>
+      </c>
+      <c r="M42">
+        <v>24</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>4972</v>
       </c>
     </row>
   </sheetData>
